--- a/Bin/Server/DataConfig/Excel/Equip.xlsx
+++ b/Bin/Server/DataConfig/Excel/Equip.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -30,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -241,12 +241,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,8 +254,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +264,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,7 +496,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -510,7 +516,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -518,6 +524,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -780,36 +789,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -868,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -927,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -986,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>54</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>60</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>63</v>
       </c>
@@ -1564,9 +1573,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:S7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:S7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
